--- a/medicine/Enfance/Fantômette_chez_les_Corsaires/Fantômette_chez_les_Corsaires.xlsx
+++ b/medicine/Enfance/Fantômette_chez_les_Corsaires/Fantômette_chez_les_Corsaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_chez_les_Corsaires</t>
+          <t>Fantômette_chez_les_Corsaires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette chez les Corsaires est le 24e roman de la série humoristique Fantômette créée par Georges Chaulet.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_chez_les_Corsaires</t>
+          <t>Fantômette_chez_les_Corsaires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette chez les Corsaires a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_chez_les_Corsaires</t>
+          <t>Fantômette_chez_les_Corsaires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Françoise Dupont / Fantômette : héroïne du roman
 Ficelle : amie de Françoise et de Boulotte
@@ -556,8 +572,8 @@
 Capitaine Porquépic : capitaine du navire Porto-Rico
 Claquebec : marin à bord du Porto-Rico
 Dominguez : gérant d'une exploitation de canne à sucre
-Roland Gouste[3] : esclave de Dominguez
-Pepito Bogan[4] : gouverneur de l’île de Machucambo</t>
+Roland Gouste : esclave de Dominguez
+Pepito Bogan : gouverneur de l’île de Machucambo</t>
         </is>
       </c>
     </row>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_chez_les_Corsaires</t>
+          <t>Fantômette_chez_les_Corsaires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1973 en langue française.
 Mise en place de l'intrigue (chapitres 1 à 4)
@@ -598,7 +616,7 @@
 Alors que tout le monde fait la sieste, Françoise/Fantômette s'échappe de la plantation et se rend à Papagayo. Elle repère la résidence de Pepito Bogan, le gouverneur, et le rencontre. Elle lui parle de l'esclavage dont sont victimes plusieurs dizaines de personnes. Après avoir refusé de la croire, Pepito Bogan lui dit qu'il va aller visiter la plantation en question. Ils se rendent donc sur les lieux. Là, surprise : tous les prisonniers ont disparu et il n'y a que les travailleurs libres. Le gouverneur la traite de menteuse, ou du moins de farceuse, et retourne chez lui. Françoise/Fantômette est obligée de rester sur la plantation. Elle apprend que la plantation appartient au gouverneur et que celui-ci avait téléphoné à Dominguez pour le prévenir de sa visite avec Fantômette !
 La vie reprend son cours. Ficelle propose un plan d'évasion qui se révèle totalement farfelu. Le lendemain, Ficelle et Boulotte se réveillent : Françoise a disparu. Arrive alors Fantômette qui a organisé une manœuvre de diversion. Elle emmène Ficelle et Boulotte avec elle. Arrivées près de la plage, Fantômette leur demande de rester là tandis qu'elle va se procurer une embarcation. Ficelle et Boulotte désobéissent à la consigne et sont faites prisonnières par les policiers du gouverneur. Emmenées devant lui, elles sont mis en présence de trigonocéphales, si bien que Ficelle révèle les plans de Fantômette.
 Dénouement et révélations finales (chapitres 11 à 13)
-Fantômette intervient encore une fois : menaçant le gouverneur avec son poignard, elle fait délivrer Ficelle et Boulotte et emmène le gouverneur à son palais, sous les yeux d'une foule médusée. C'est alors la révolution : les policiers sont invités à regagner les commissariats et un gouvernement civil s'installe. Le nouveau président est le douanier Roussin[5]. Les esclaves des plantations sont libérés.
+Fantômette intervient encore une fois : menaçant le gouverneur avec son poignard, elle fait délivrer Ficelle et Boulotte et emmène le gouverneur à son palais, sous les yeux d'une foule médusée. C'est alors la révolution : les policiers sont invités à regagner les commissariats et un gouvernement civil s'installe. Le nouveau président est le douanier Roussin. Les esclaves des plantations sont libérés.
 Sur le paquebot du retour, Ficelle et Boulotte devisent sur la disparition de Françoise. Alors qu'ils ne sont pas loin de l’endroit où les jeunes filles avaient assisté à l'abordage d'un navire civil lors de l'aller, elles constatent la présence du même galion corsaire ou pirate. Le navire attaque le navire de croisière ! L'abordage a lieu et les hommes d'équipage ont le dessous. Mais c'est sans compter l'intervention de Fantômette qui provoque en duel le capitaine des pirates. Elle le terrasse et le fait tomber à l’eau. Elle lui apprend aussi que ses accords de fourniture d'esclaves au gouverneur de Machucambo sont désormais caducs puisque le gouverneur a été renversé et a déguerpi. Fantômette disparaît alors de la vue des témoins. Plus tard, Françoise se présente auprès de ses deux amies. Heureuses de la retrouver, elles ne font pas le lien avec Fantômette.
 Trois mois plus tard, le trio d'amies est en vacances en Bretagne. Ficelle pêche une bouteille qui contient un message : il s'agit de la bouteille et du message qu’elle avait lancés à la mer lorsqu'elles étaient dans le navire Porto-Rico.
 </t>
